--- a/data/Follow-up/sample/respondents_by_city.xlsx
+++ b/data/Follow-up/sample/respondents_by_city.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">provincia</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t xml:space="preserve">Namaacha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ponta De Ouro</t>
   </si>
   <si>
     <t xml:space="preserve">Sofala</t>
@@ -582,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>829</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -615,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -648,7 +645,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -659,61 +656,50 @@
         <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>168</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>
